--- a/ig/sd-correction-mise-en-page-index/StructureDefinition-eclaire-location.xlsx
+++ b/ig/sd-correction-mise-en-page-index/StructureDefinition-eclaire-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T10:50:14+00:00</t>
+    <t>2023-11-02T11:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
